--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -176,7 +176,7 @@
     <t xml:space="preserve">mean_bfi_o</t>
   </si>
   <si>
-    <t xml:space="preserve">D_score</t>
+    <t xml:space="preserve">IAT_score</t>
   </si>
   <si>
     <t xml:space="preserve">exclusion</t>

--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -1,193 +1,359 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sarah_schnyder_students_unibe_ch/Documents/Master Psychologie/1. Semester/Digital Project Management/Github/dpm-assignments/personality and race-IAT study/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_B026D1302791A4FEB2442DBF073E1B9392594BFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A235EE-2C32-4EAE-B107-A9C391C5C897}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explanation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAT_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>unique_id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>bfi_a1</t>
+  </si>
+  <si>
+    <t>bfi_a2</t>
+  </si>
+  <si>
+    <t>bfi_a3</t>
+  </si>
+  <si>
+    <t>bfi_a4</t>
+  </si>
+  <si>
+    <t>bfi_a5</t>
+  </si>
+  <si>
+    <t>bfi_a6</t>
+  </si>
+  <si>
+    <t>bfi_a7</t>
+  </si>
+  <si>
+    <t>bfi_a8</t>
+  </si>
+  <si>
+    <t>bfi_a9</t>
+  </si>
+  <si>
+    <t>bfi_c1</t>
+  </si>
+  <si>
+    <t>bfi_c2</t>
+  </si>
+  <si>
+    <t>bfi_c3</t>
+  </si>
+  <si>
+    <t>bfi_c4</t>
+  </si>
+  <si>
+    <t>bfi_c5</t>
+  </si>
+  <si>
+    <t>bfi_c6</t>
+  </si>
+  <si>
+    <t>bfi_c7</t>
+  </si>
+  <si>
+    <t>bfi_c8</t>
+  </si>
+  <si>
+    <t>bfi_c9</t>
+  </si>
+  <si>
+    <t>bfi_e1</t>
+  </si>
+  <si>
+    <t>bfi_e2</t>
+  </si>
+  <si>
+    <t>bfi_e3</t>
+  </si>
+  <si>
+    <t>bfi_e4</t>
+  </si>
+  <si>
+    <t>bfi_e5</t>
+  </si>
+  <si>
+    <t>bfi_e6</t>
+  </si>
+  <si>
+    <t>bfi_e7</t>
+  </si>
+  <si>
+    <t>bfi_e8</t>
+  </si>
+  <si>
+    <t>bfi_n1</t>
+  </si>
+  <si>
+    <t>bfi_n2</t>
+  </si>
+  <si>
+    <t>bfi_n3</t>
+  </si>
+  <si>
+    <t>bfi_n4</t>
+  </si>
+  <si>
+    <t>bfi_n5</t>
+  </si>
+  <si>
+    <t>bfi_n6</t>
+  </si>
+  <si>
+    <t>bfi_n7</t>
+  </si>
+  <si>
+    <t>bfi_n8</t>
+  </si>
+  <si>
+    <t>bfi_o1</t>
+  </si>
+  <si>
+    <t>bfi_o10</t>
+  </si>
+  <si>
+    <t>bfi_o2</t>
+  </si>
+  <si>
+    <t>bfi_o3</t>
+  </si>
+  <si>
+    <t>bfi_o4</t>
+  </si>
+  <si>
+    <t>bfi_o5</t>
+  </si>
+  <si>
+    <t>bfi_o6</t>
+  </si>
+  <si>
+    <t>bfi_o7</t>
+  </si>
+  <si>
+    <t>bfi_o8</t>
+  </si>
+  <si>
+    <t>bfi_o9</t>
+  </si>
+  <si>
+    <t>mean_bfi_a</t>
+  </si>
+  <si>
+    <t>mean_bfi_c</t>
+  </si>
+  <si>
+    <t>mean_bfi_e</t>
+  </si>
+  <si>
+    <t>mean_bfi_n</t>
+  </si>
+  <si>
+    <t>mean_bfi_o</t>
+  </si>
+  <si>
+    <t>IAT_score</t>
+  </si>
+  <si>
+    <t>exclusion</t>
+  </si>
+  <si>
+    <t>individual number for each participant</t>
+  </si>
+  <si>
+    <t>number of years alive of participant</t>
+  </si>
+  <si>
+    <t>either of the two main categories into which humans are divided on the basis of their reproductive functions (m = male, f = female)</t>
+  </si>
+  <si>
+    <t>answer to item 2 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 3 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 4 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 5 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 6 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 7 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 8 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 9 of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>answer to item 1 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 2 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 3 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 4 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 5 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 6 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 7 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 8 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 9 of BFI scale conscientiousness</t>
+  </si>
+  <si>
+    <t>answer to item 1 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 2 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 3 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 4 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 5 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 6 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 7 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 8 of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>answer to item 1 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 2 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 3 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 4 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 5 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 6 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 7 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 8 of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>answer to item 1 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 10 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 2 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 3 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 4 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 5 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 6 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 7 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 8 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 9 of BFI scale openness</t>
+  </si>
+  <si>
+    <t>mean of answers to all items of BFI scale agreeableness</t>
+  </si>
+  <si>
+    <t>mean of answers to all items of BFI scale extraversion</t>
+  </si>
+  <si>
+    <t>mean of answers to all items of BFI scale neuroticism</t>
+  </si>
+  <si>
+    <t>mean of answers to all items of BFI scale openness</t>
+  </si>
+  <si>
+    <t>answer to item 1 of BFI (Big Five Inventory) scale agreeableness</t>
+  </si>
+  <si>
+    <t>shows if participant is going to be excluded or not (include, exclude)</t>
+  </si>
+  <si>
+    <t>score in the implicit association test (Greenwald "D" score)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,14 +382,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,347 +686,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="58" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="37.53125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6">
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="7">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9">
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9"/>
-    </row>
-    <row r="10">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10"/>
-    </row>
-    <row r="11">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12"/>
-    </row>
-    <row r="13">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14"/>
-    </row>
-    <row r="15">
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17">
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18">
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18"/>
-    </row>
-    <row r="19">
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19"/>
-    </row>
-    <row r="20">
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20"/>
-    </row>
-    <row r="21">
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21"/>
-    </row>
-    <row r="22">
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22"/>
-    </row>
-    <row r="23">
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23"/>
-    </row>
-    <row r="24">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24"/>
-    </row>
-    <row r="25">
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25"/>
-    </row>
-    <row r="26">
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26"/>
-    </row>
-    <row r="27">
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27"/>
-    </row>
-    <row r="28">
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28"/>
-    </row>
-    <row r="29">
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29"/>
-    </row>
-    <row r="30">
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30"/>
-    </row>
-    <row r="31">
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31"/>
-    </row>
-    <row r="32">
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32"/>
-    </row>
-    <row r="33">
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33"/>
-    </row>
-    <row r="34">
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34"/>
-    </row>
-    <row r="35">
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35"/>
-    </row>
-    <row r="36">
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36"/>
-    </row>
-    <row r="37">
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37"/>
-    </row>
-    <row r="38">
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38"/>
-    </row>
-    <row r="39">
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39"/>
-    </row>
-    <row r="40">
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40"/>
-    </row>
-    <row r="41">
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41"/>
-    </row>
-    <row r="42">
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42"/>
-    </row>
-    <row r="43">
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43"/>
-    </row>
-    <row r="44">
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44"/>
-    </row>
-    <row r="45">
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45"/>
-    </row>
-    <row r="46">
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46"/>
-    </row>
-    <row r="47">
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47"/>
-    </row>
-    <row r="48">
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48"/>
-    </row>
-    <row r="49">
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49"/>
-    </row>
-    <row r="50">
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50"/>
-    </row>
-    <row r="51">
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51"/>
-    </row>
-    <row r="52">
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52"/>
-    </row>
-    <row r="53">
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53"/>
-    </row>
-    <row r="54">
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54"/>
-    </row>
-    <row r="55">
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sarah_schnyder_students_unibe_ch/Documents/Master Psychologie/1. Semester/Digital Project Management/Github/dpm-assignments/personality and race-IAT study/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_B026D1302791A4FEB2442DBF073E1B9392594BFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A235EE-2C32-4EAE-B107-A9C391C5C897}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_B026D1302791A4FEB2442DBF073E1B9392594BFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACBF5AC-0569-43E1-B178-B79F7B02DBED}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="18720" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -353,8 +353,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -382,9 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,10 +414,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,24 +697,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="58" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="67" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -714,7 +722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -730,7 +738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -738,7 +746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -746,7 +754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -754,7 +762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,7 +770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -770,7 +778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -778,7 +786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -786,7 +794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -794,7 +802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -802,7 +810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -810,7 +818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -818,7 +826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -826,7 +834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -834,7 +842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -842,7 +850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -850,7 +858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -858,7 +866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -866,7 +874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -874,7 +882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -882,7 +890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -890,7 +898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -898,7 +906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -906,7 +914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -914,7 +922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -922,7 +930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -930,7 +938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -938,7 +946,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -946,7 +954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -954,7 +962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -962,7 +970,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -970,7 +978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -978,7 +986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -986,7 +994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1042,7 +1050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1140,6 +1148,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>